--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90126A6F-DC35-4D06-A111-00F322B6A475}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>Responsable</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Fabian</t>
   </si>
 </sst>
 </file>
@@ -862,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +928,9 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -927,7 +938,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -935,7 +948,9 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
@@ -1249,12 +1264,18 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45436</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1634,7 +1655,9 @@
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
@@ -1658,7 +1681,9 @@
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -1666,7 +1691,9 @@
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
@@ -1714,7 +1741,9 @@
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90126A6F-DC35-4D06-A111-00F322B6A475}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A5A175-C861-4FE4-8A62-FD0B802FE1B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView minimized="1" xWindow="720" yWindow="1290" windowWidth="10890" windowHeight="9510" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,6 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,6 +551,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -872,7 +877,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +946,9 @@
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="7">
+        <v>0.5</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90126A6F-DC35-4D06-A111-00F322B6A475}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8247A874-69C6-4C78-97A1-5464C33094E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -872,17 +872,17 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="104.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -896,7 +896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -910,7 +910,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -924,7 +924,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1026,13 +1026,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1421,7 +1421,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>87</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8247A874-69C6-4C78-97A1-5464C33094E8}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982F2883-1838-4031-B524-14B17D9AD98F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Funciones que ya están" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="174">
   <si>
     <t>Responsable</t>
   </si>
@@ -56,9 +57,6 @@
     <t>gageRRDesign(), gageRR_abc() (plots-&gt;ggplot)</t>
   </si>
   <si>
-    <t>pcr() (qqPlot,ppPlot-&gt;ggplot)</t>
-  </si>
-  <si>
     <t>facDesign() (summary), simProc (effectPlot, interactionPlot, lm, wirePlot, contourPlot, paretoPlot normalPlot)</t>
   </si>
   <si>
@@ -317,9 +315,6 @@
     <t>plnorm3</t>
   </si>
   <si>
-    <t>plot</t>
-  </si>
-  <si>
     <t>ppPlot</t>
   </si>
   <si>
@@ -456,13 +451,121 @@
   </si>
   <si>
     <t>Fabian</t>
+  </si>
+  <si>
+    <t>pcr() (qqPlot-&gt;ggplot)</t>
+  </si>
+  <si>
+    <t>Class Distr</t>
+  </si>
+  <si>
+    <t>Class DistrCollection</t>
+  </si>
+  <si>
+    <t>Funcion FitDistr</t>
+  </si>
+  <si>
+    <t>Método Plot de la clase Distr y DistrCollection</t>
+  </si>
+  <si>
+    <t>Función .xyLimits</t>
+  </si>
+  <si>
+    <t>Archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppPlot </t>
+  </si>
+  <si>
+    <t>ParetoChart_</t>
+  </si>
+  <si>
+    <t>2.cg_.R</t>
+  </si>
+  <si>
+    <t>1.ParetoChart_.R</t>
+  </si>
+  <si>
+    <t>.cg</t>
+  </si>
+  <si>
+    <t>cg_RunChart</t>
+  </si>
+  <si>
+    <t>cg_ToleranceChart</t>
+  </si>
+  <si>
+    <t>cg_HistChart</t>
+  </si>
+  <si>
+    <t>cg_</t>
+  </si>
+  <si>
+    <t>3. Class Distr, qqPlot y ppPlot.R</t>
+  </si>
+  <si>
+    <t>FUNCIONES</t>
+  </si>
+  <si>
+    <t>4. pcr</t>
+  </si>
+  <si>
+    <t>Funciones Auxiliares</t>
+  </si>
+  <si>
+    <t>.xyLImits</t>
+  </si>
+  <si>
+    <t>.sdSg</t>
+  </si>
+  <si>
+    <t>.lfkp</t>
+  </si>
+  <si>
+    <t>.lfrm</t>
+  </si>
+  <si>
+    <t>.myADTest</t>
+  </si>
+  <si>
+    <t>.charToDistFunc</t>
+  </si>
+  <si>
+    <t>.confintbeta</t>
+  </si>
+  <si>
+    <t>.confincauchy</t>
+  </si>
+  <si>
+    <t>.confintexp</t>
+  </si>
+  <si>
+    <t>.confintlnorm</t>
+  </si>
+  <si>
+    <t>.confintlogis</t>
+  </si>
+  <si>
+    <t>.confintnorm</t>
+  </si>
+  <si>
+    <t>.confintweibull</t>
+  </si>
+  <si>
+    <t>.gamma3</t>
+  </si>
+  <si>
+    <t>.lognormal3</t>
+  </si>
+  <si>
+    <t>.weibull3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +588,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,8 +608,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -523,11 +638,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,6 +731,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,6 +763,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -893,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -901,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -915,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -929,34 +1146,38 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45426</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -964,7 +1185,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -972,7 +1193,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -980,7 +1201,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -988,7 +1209,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -996,7 +1217,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1004,7 +1225,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1012,7 +1233,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1020,7 +1241,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1034,7 +1255,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -1048,7 +1269,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1058,12 +1279,12 @@
         <v>3.4782608695652173</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1071,7 +1292,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1079,7 +1300,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1087,7 +1308,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1095,7 +1316,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1103,7 +1324,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1111,7 +1332,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1119,7 +1340,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1127,7 +1348,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1135,7 +1356,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1143,7 +1364,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1151,7 +1372,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1159,7 +1380,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1167,7 +1388,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1175,7 +1396,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1183,7 +1404,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1191,7 +1412,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1199,7 +1420,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1207,7 +1428,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1215,7 +1436,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1223,10 +1444,10 @@
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -1237,10 +1458,10 @@
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -1251,10 +1472,10 @@
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -1265,10 +1486,10 @@
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1279,7 +1500,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1287,7 +1508,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1295,7 +1516,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1303,7 +1524,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1311,7 +1532,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1319,7 +1540,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1327,7 +1548,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1335,7 +1556,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1343,7 +1564,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1351,7 +1572,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1359,7 +1580,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1367,7 +1588,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1375,7 +1596,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1383,7 +1604,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1391,7 +1612,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1399,7 +1620,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1407,7 +1628,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1415,7 +1636,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1423,7 +1644,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1431,7 +1652,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1439,7 +1660,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1447,7 +1668,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1455,7 +1676,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1463,7 +1684,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1471,7 +1692,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1479,7 +1700,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1487,7 +1708,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1495,7 +1716,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1503,7 +1724,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1511,7 +1732,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1519,7 +1740,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1527,7 +1748,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1535,7 +1756,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1543,7 +1764,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1551,7 +1772,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1559,7 +1780,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1567,7 +1788,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1575,7 +1796,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1583,7 +1804,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1591,7 +1812,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1599,7 +1820,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1607,7 +1828,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1615,7 +1836,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1623,10 +1844,10 @@
     </row>
     <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -1637,7 +1858,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1645,25 +1866,29 @@
     </row>
     <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6">
+        <v>45426</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1671,85 +1896,121 @@
     </row>
     <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="A92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="6">
+        <v>45418</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="A93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6">
+        <v>45419</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="A94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>45420</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="A95" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>45421</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="A96" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>45422</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="B97" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>45426</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="A98" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="9">
+        <v>45426</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1757,7 +2018,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1765,7 +2026,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1773,23 +2034,29 @@
     </row>
     <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6">
+        <v>45426</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1797,7 +2064,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1805,7 +2072,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1813,7 +2080,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1821,7 +2088,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1829,7 +2096,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1837,7 +2104,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1845,7 +2112,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1853,7 +2120,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1861,7 +2128,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1869,7 +2136,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1877,7 +2144,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1885,7 +2152,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1893,7 +2160,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1901,7 +2168,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1909,7 +2176,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1917,7 +2184,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1925,7 +2192,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1933,7 +2200,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1941,7 +2208,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1949,7 +2216,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1957,7 +2224,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1965,7 +2232,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1973,7 +2240,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1981,7 +2248,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1989,7 +2256,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1997,7 +2264,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2005,11 +2272,289 @@
     </row>
     <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="20" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982F2883-1838-4031-B524-14B17D9AD98F}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525B2045-45A4-4F1A-8D35-F1911364C194}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="175">
   <si>
     <t>Responsable</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>.weibull3</t>
+  </si>
+  <si>
+    <t>Funcion distribution</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,15 +739,13 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2325,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,213 +2347,210 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="20" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="18" t="s">
         <v>173</v>
       </c>
     </row>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525B2045-45A4-4F1A-8D35-F1911364C194}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F8CBFB-F863-49D8-AC04-95B829722092}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="185">
   <si>
     <t>Responsable</t>
   </si>
@@ -562,6 +562,36 @@
   </si>
   <si>
     <t>Funcion distribution</t>
+  </si>
+  <si>
+    <t>.helpAliasTable</t>
+  </si>
+  <si>
+    <t>Class facDesign</t>
+  </si>
+  <si>
+    <t>Class doeFactor</t>
+  </si>
+  <si>
+    <t>.rsm</t>
+  </si>
+  <si>
+    <t>.numFac</t>
+  </si>
+  <si>
+    <t>.confoundings</t>
+  </si>
+  <si>
+    <t>.lociv</t>
+  </si>
+  <si>
+    <t>.blockInteractions</t>
+  </si>
+  <si>
+    <t>.blockGenCol</t>
+  </si>
+  <si>
+    <t>.blockCol</t>
   </si>
 </sst>
 </file>
@@ -726,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,6 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +795,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,20 +1114,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="104.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1155,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1169,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1152,12 +1179,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1166,17 +1193,21 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1215,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1223,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1231,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1239,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1247,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1255,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1263,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1271,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1248,13 +1279,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1283,15 +1314,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1336,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1307,15 +1344,21 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1366,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1374,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1382,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1347,7 +1390,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1398,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1363,7 +1406,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1414,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1422,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1387,7 +1430,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1395,7 +1438,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1403,7 +1446,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1454,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1419,7 +1462,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1470,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1435,7 +1478,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1443,7 +1486,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1457,7 +1500,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1471,7 +1514,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1485,7 +1528,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1542,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1550,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +1558,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1523,7 +1566,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1574,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1539,7 +1582,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1547,7 +1590,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1598,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1606,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1614,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1622,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1587,7 +1630,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1595,7 +1638,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1646,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1654,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1619,7 +1662,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1627,7 +1670,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1635,7 +1678,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1643,31 +1686,49 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1675,7 +1736,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1683,7 +1744,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1691,15 +1752,21 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -1707,7 +1774,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1715,7 +1782,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1723,7 +1790,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -1731,23 +1798,35 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1755,7 +1834,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -1763,23 +1842,35 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1787,7 +1878,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1795,7 +1886,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1803,7 +1894,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1811,7 +1902,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -1819,7 +1910,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -1827,7 +1918,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -1835,7 +1926,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -1843,7 +1934,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -1857,7 +1948,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -1865,7 +1956,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -1873,12 +1964,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -1887,7 +1978,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -1895,7 +1986,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -1903,12 +1994,12 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -1917,12 +2008,12 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -1931,12 +2022,12 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -1945,12 +2036,12 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -1959,12 +2050,12 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -1973,12 +2064,12 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -1987,7 +2078,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>92</v>
       </c>
@@ -2001,7 +2092,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
@@ -2009,7 +2100,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
@@ -2017,7 +2108,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
@@ -2025,7 +2116,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -2033,7 +2124,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
@@ -2041,12 +2132,12 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
@@ -2055,7 +2146,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -2063,15 +2154,21 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="D106" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
@@ -2079,7 +2176,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
@@ -2087,7 +2184,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
@@ -2095,7 +2192,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
@@ -2103,7 +2200,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
@@ -2111,7 +2208,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
@@ -2119,7 +2216,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
@@ -2127,7 +2224,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
@@ -2135,7 +2232,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
@@ -2143,7 +2240,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -2151,7 +2248,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -2159,7 +2256,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -2167,7 +2264,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>113</v>
       </c>
@@ -2175,7 +2272,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
@@ -2183,7 +2280,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
@@ -2191,7 +2288,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
@@ -2199,15 +2296,15 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
@@ -2215,7 +2312,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
@@ -2223,7 +2320,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
@@ -2231,7 +2328,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -2239,7 +2336,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -2247,7 +2344,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -2255,7 +2352,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -2263,7 +2360,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -2271,7 +2368,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -2279,7 +2376,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -2287,7 +2384,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -2295,7 +2392,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
@@ -2303,7 +2400,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
@@ -2311,13 +2408,135 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1</v>
+      </c>
+      <c r="D141" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1</v>
+      </c>
+      <c r="D143" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="5">
+        <v>1</v>
+      </c>
+      <c r="D146" s="6">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6">
+        <v>45426</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2328,17 +2547,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -2346,7 +2565,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>148</v>
       </c>
@@ -2354,7 +2573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>147</v>
       </c>
@@ -2365,7 +2584,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="17" t="s">
         <v>152</v>
@@ -2374,7 +2593,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>151</v>
@@ -2383,7 +2602,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="18" t="s">
         <v>153</v>
@@ -2392,7 +2611,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>154</v>
       </c>
@@ -2403,7 +2622,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="17" t="s">
         <v>140</v>
@@ -2412,37 +2631,37 @@
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>156</v>
       </c>
@@ -2450,7 +2669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>157</v>
       </c>
@@ -2458,97 +2677,97 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="18" t="s">
         <v>173</v>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{525B2045-45A4-4F1A-8D35-F1911364C194}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{587ED6E3-4A13-44FE-8F01-AE50B16D998E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Avances" sheetId="1" r:id="rId1"/>
     <sheet name="Funciones que ya están" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -531,37 +531,37 @@
     <t>.charToDistFunc</t>
   </si>
   <si>
-    <t>.confintbeta</t>
-  </si>
-  <si>
-    <t>.confincauchy</t>
-  </si>
-  <si>
-    <t>.confintexp</t>
-  </si>
-  <si>
-    <t>.confintlnorm</t>
-  </si>
-  <si>
-    <t>.confintlogis</t>
-  </si>
-  <si>
-    <t>.confintnorm</t>
-  </si>
-  <si>
-    <t>.confintweibull</t>
-  </si>
-  <si>
-    <t>.gamma3</t>
-  </si>
-  <si>
-    <t>.lognormal3</t>
-  </si>
-  <si>
-    <t>.weibull3</t>
-  </si>
-  <si>
     <t>Funcion distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confincauchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confintexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confintlnorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confintnorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confintlogis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .confintweibull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .gamma3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .lognormal3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 .weibull3</t>
+  </si>
+  <si>
+    <t>internals.r : .confintbeta</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,12 +608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,9 +728,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -749,6 +740,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1953,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -1974,7 +1967,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -1988,17 +1981,17 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D98" s="9">
-        <v>45426</v>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>45427</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2326,16 +2319,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2347,212 +2341,239 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18" t="s">
-        <v>173</v>
-      </c>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{1F8B6C19-C86C-41D0-B0BC-8FFE12B9195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{587ED6E3-4A13-44FE-8F01-AE50B16D998E}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="114_{5212DF5B-E622-4D4D-80F3-C538F21FB1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFBC692-EC6F-4B0E-B55B-7BB5810E0F7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Avances" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="191">
   <si>
     <t>Responsable</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Fecha Fin</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Andrea</t>
   </si>
   <si>
@@ -562,6 +559,57 @@
   </si>
   <si>
     <t>internals.r : .confintbeta</t>
+  </si>
+  <si>
+    <t>.helpAliasTable</t>
+  </si>
+  <si>
+    <t>.m.interaction.plot</t>
+  </si>
+  <si>
+    <t>Class facDesign</t>
+  </si>
+  <si>
+    <t>Class doeFactor</t>
+  </si>
+  <si>
+    <t>.rsm</t>
+  </si>
+  <si>
+    <t>.numFac</t>
+  </si>
+  <si>
+    <t>.confoundings</t>
+  </si>
+  <si>
+    <t>.lociv</t>
+  </si>
+  <si>
+    <t>.blockInteractions</t>
+  </si>
+  <si>
+    <t>.blockGenCol</t>
+  </si>
+  <si>
+    <t>.blockCol</t>
+  </si>
+  <si>
+    <t>Andrea - Fabian</t>
+  </si>
+  <si>
+    <t>.norm2d</t>
+  </si>
+  <si>
+    <t>.letterPos</t>
+  </si>
+  <si>
+    <t>.testFun</t>
+  </si>
+  <si>
+    <t>lm() facDesign</t>
+  </si>
+  <si>
+    <t>.splotDev</t>
   </si>
 </sst>
 </file>
@@ -598,7 +646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,6 +796,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +814,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,20 +1133,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="104.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1174,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1135,22 +1188,22 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1159,25 +1212,31 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1244,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,23 +1252,31 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1284,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1292,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1300,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1241,13 +1308,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1261,30 +1328,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18">
-        <f>4/115*100</f>
-        <v>3.4782608695652173</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1358,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1300,15 +1366,21 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,7 +1388,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1396,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1332,7 +1404,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1412,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -1348,7 +1420,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1428,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1364,15 +1436,21 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,15 +1458,21 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1396,23 +1480,35 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1420,15 +1516,21 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1538,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1450,7 +1552,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1464,7 +1566,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1478,7 +1580,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
@@ -1492,7 +1594,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1500,7 +1602,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1508,7 +1610,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1516,7 +1618,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1524,7 +1626,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1532,7 +1634,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1540,15 +1642,21 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1556,7 +1664,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1564,7 +1672,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1572,7 +1680,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1688,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1588,7 +1696,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1596,7 +1704,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1604,7 +1712,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1612,7 +1720,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1620,15 +1728,19 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1636,31 +1748,49 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1668,7 +1798,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1676,7 +1806,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1684,15 +1814,21 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -1700,7 +1836,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1708,7 +1844,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1716,7 +1852,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -1724,23 +1860,35 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1748,31 +1896,47 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B75" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1780,7 +1944,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1788,7 +1952,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1796,7 +1960,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1804,7 +1968,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -1812,7 +1976,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -1820,7 +1984,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -1828,7 +1992,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -1836,7 +2000,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -1850,15 +2014,19 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="21"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -1866,12 +2034,12 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -1880,7 +2048,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -1888,7 +2056,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -1896,12 +2064,12 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -1910,12 +2078,12 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -1924,12 +2092,12 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -1938,12 +2106,12 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -1952,12 +2120,12 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -1966,12 +2134,12 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -1980,12 +2148,12 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -1994,7 +2162,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>93</v>
       </c>
@@ -2002,7 +2170,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>94</v>
       </c>
@@ -2010,7 +2178,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
@@ -2018,7 +2186,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
@@ -2026,7 +2194,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>97</v>
       </c>
@@ -2034,12 +2202,12 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
@@ -2048,7 +2216,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
@@ -2056,23 +2224,35 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="B106" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="D106" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>102</v>
       </c>
@@ -2080,7 +2260,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>103</v>
       </c>
@@ -2088,7 +2268,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
@@ -2096,7 +2276,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>105</v>
       </c>
@@ -2104,7 +2284,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
@@ -2112,7 +2292,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
@@ -2120,7 +2300,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
@@ -2128,15 +2308,21 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>110</v>
       </c>
@@ -2144,7 +2330,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -2152,7 +2338,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>112</v>
       </c>
@@ -2160,15 +2346,21 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>114</v>
       </c>
@@ -2176,7 +2368,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>115</v>
       </c>
@@ -2184,7 +2376,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
@@ -2192,15 +2384,19 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B123" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>118</v>
       </c>
@@ -2208,7 +2404,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
@@ -2216,7 +2412,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>120</v>
       </c>
@@ -2224,7 +2420,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -2232,7 +2428,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>122</v>
       </c>
@@ -2240,7 +2436,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -2248,7 +2444,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -2256,7 +2452,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -2264,7 +2460,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>126</v>
       </c>
@@ -2272,7 +2468,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
@@ -2280,7 +2476,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>128</v>
       </c>
@@ -2288,7 +2484,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>129</v>
       </c>
@@ -2296,7 +2492,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>130</v>
       </c>
@@ -2304,13 +2500,237 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1</v>
+      </c>
+      <c r="D139" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1</v>
+      </c>
+      <c r="D141" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1</v>
+      </c>
+      <c r="D143" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="5">
+        <v>1</v>
+      </c>
+      <c r="D146" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1</v>
+      </c>
+      <c r="D148" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1</v>
+      </c>
+      <c r="D149" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1</v>
+      </c>
+      <c r="D151" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1</v>
+      </c>
+      <c r="D152" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1</v>
+      </c>
+      <c r="D153" s="6">
+        <v>45429</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,257 +2741,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>147</v>
-      </c>
       <c r="B3" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="20"/>
     </row>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="114_{5212DF5B-E622-4D4D-80F3-C538F21FB1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFBC692-EC6F-4B0E-B55B-7BB5810E0F7D}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="114_{5212DF5B-E622-4D4D-80F3-C538F21FB1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F728A55-89E3-4576-B52A-1143C290493F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Avances" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
   <si>
     <t>Responsable</t>
   </si>
@@ -54,9 +54,6 @@
     <t>cg(): cgRunChart(), cgHist(), cgToleranceView()</t>
   </si>
   <si>
-    <t>gageRRDesign(), gageRR_abc() (plots-&gt;ggplot)</t>
-  </si>
-  <si>
     <t>facDesign() (summary), simProc (effectPlot, interactionPlot, lm, wirePlot, contourPlot, paretoPlot normalPlot)</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Andrea</t>
   </si>
   <si>
-    <t>Dario</t>
-  </si>
-  <si>
     <t>Fabian</t>
   </si>
   <si>
@@ -610,6 +604,39 @@
   </si>
   <si>
     <t>.splotDev</t>
+  </si>
+  <si>
+    <t>Dario - Andrea</t>
+  </si>
+  <si>
+    <t>.pcr</t>
+  </si>
+  <si>
+    <t>5. Clase y Función gageRR</t>
+  </si>
+  <si>
+    <t>.aip</t>
+  </si>
+  <si>
+    <t>.c4</t>
+  </si>
+  <si>
+    <t>.mapping</t>
+  </si>
+  <si>
+    <t>Clase gageRR</t>
+  </si>
+  <si>
+    <t>Función gageRRDesign</t>
+  </si>
+  <si>
+    <t>Función gageRR_</t>
+  </si>
+  <si>
+    <t>gageRRDesign(), gageRR_() (plots-&gt;ggplot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabian </t>
   </si>
 </sst>
 </file>
@@ -666,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -770,11 +797,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -799,6 +848,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,20 +1190,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="104.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="104.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1157,15 +1212,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1174,12 +1229,12 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1188,22 +1243,26 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1212,111 +1271,111 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="22">
         <v>0.75</v>
       </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="22">
         <v>0.25</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="22">
         <v>0.5</v>
       </c>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="22">
         <v>0.5</v>
       </c>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -1328,20 +1387,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1350,28 +1409,28 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -1380,68 +1439,68 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -1450,20 +1509,20 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -1472,20 +1531,20 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -1494,12 +1553,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -1508,20 +1567,20 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -1530,20 +1589,20 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -1552,12 +1611,12 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -1566,12 +1625,12 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -1580,12 +1639,12 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1594,60 +1653,60 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -1656,104 +1715,110 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59" s="22">
         <v>0.5</v>
       </c>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -1762,12 +1827,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -1776,12 +1841,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -1790,36 +1855,36 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -1828,44 +1893,56 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -1874,12 +1951,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -1888,32 +1965,32 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="22">
         <v>0.5</v>
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -1922,12 +1999,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -1936,76 +2013,76 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -2014,32 +2091,32 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="22">
         <v>0.5</v>
       </c>
       <c r="D87" s="21"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -2048,28 +2125,28 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -2078,12 +2155,12 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -2092,12 +2169,12 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -2106,12 +2183,12 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -2120,12 +2197,12 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -2134,12 +2211,12 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -2148,12 +2225,12 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="5">
         <v>1</v>
@@ -2162,52 +2239,58 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C104" s="5">
         <v>1</v>
@@ -2216,20 +2299,20 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C106" s="5">
         <v>1</v>
@@ -2238,12 +2321,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C107" s="5">
         <v>1</v>
@@ -2252,68 +2335,68 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C115" s="5">
         <v>1</v>
@@ -2322,36 +2405,36 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C119" s="5">
         <v>1</v>
@@ -2360,160 +2443,160 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C123" s="22">
         <v>0.25</v>
       </c>
       <c r="D123" s="23"/>
     </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C138" s="5">
         <v>1</v>
@@ -2522,12 +2605,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C139" s="5">
         <v>1</v>
@@ -2536,12 +2619,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C140" s="5">
         <v>1</v>
@@ -2550,12 +2633,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="5">
         <v>1</v>
@@ -2564,12 +2647,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C142" s="5">
         <v>1</v>
@@ -2578,12 +2661,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
@@ -2592,12 +2675,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C144" s="5">
         <v>1</v>
@@ -2606,12 +2689,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C145" s="5">
         <v>1</v>
@@ -2620,12 +2703,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C146" s="5">
         <v>1</v>
@@ -2634,12 +2717,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C147" s="5">
         <v>1</v>
@@ -2648,12 +2731,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C148" s="5">
         <v>1</v>
@@ -2662,12 +2745,12 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C149" s="5">
         <v>1</v>
@@ -2676,12 +2759,12 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C150" s="5">
         <v>1</v>
@@ -2690,12 +2773,12 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C151" s="5">
         <v>1</v>
@@ -2704,12 +2787,12 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C152" s="5">
         <v>1</v>
@@ -2718,12 +2801,12 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C153" s="5">
         <v>1</v>
@@ -2739,261 +2822,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>154</v>
+      </c>
       <c r="B12" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
+      <c r="B38" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Avances paquete.xlsx
+++ b/Avances paquete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/andrea_barahona_epn_edu_ec/Documents/PasantiasUDC/Libro_TidyQualityTools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/milton_encarnacion_epn_edu_ec/Documents/Pasantías UDC/Libro_TidyQualityTools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="114_{5212DF5B-E622-4D4D-80F3-C538F21FB1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F728A55-89E3-4576-B52A-1143C290493F}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="114_{5212DF5B-E622-4D4D-80F3-C538F21FB1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{812EEF86-3EA9-4610-9D44-F2EA91B9DF99}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C95EA655-6F4D-4D28-BCDA-105F80DE6639}"/>
   </bookViews>
   <sheets>
     <sheet name="Avances" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="202">
   <si>
     <t>Responsable</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fabian </t>
+  </si>
+  <si>
+    <t>Fabian- Andrea</t>
+  </si>
+  <si>
+    <t>Class steepAscent</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,12 +854,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,20 +1192,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A3DCFC-D9FB-48AC-8632-C7F2B78E3A7E}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="104.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1226,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1240,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>45432</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>135</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1283,27 +1287,35 @@
       </c>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1323,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1335,7 @@
       </c>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1347,7 @@
       </c>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1355,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1363,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1371,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,13 +1379,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1407,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,7 +1429,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1459,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1467,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1463,7 +1475,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1471,15 +1483,21 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1487,7 +1505,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1513,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1527,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1535,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1557,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1553,7 +1571,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1575,7 +1593,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1615,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1611,7 +1629,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1625,7 +1643,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1636,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1650,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1661,7 +1679,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1669,23 +1687,35 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1693,7 +1723,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1701,7 +1731,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1745,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1753,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1731,23 +1761,35 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1755,7 +1797,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1769,7 +1811,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1777,7 +1819,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1785,7 +1827,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1793,19 +1835,21 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1813,7 +1857,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -1827,7 +1871,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
@@ -1841,7 +1885,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
@@ -1855,31 +1899,49 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -1893,7 +1955,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1901,7 +1963,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1909,7 +1971,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -1923,7 +1985,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -1937,7 +1999,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
@@ -1951,7 +2013,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -1965,7 +2027,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1973,7 +2035,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>74</v>
       </c>
@@ -1985,7 +2047,7 @@
       </c>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -1999,7 +2061,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
@@ -2013,7 +2075,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -2021,7 +2083,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -2029,7 +2091,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -2037,7 +2099,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -2045,7 +2107,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -2053,7 +2115,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2061,7 +2123,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -2069,7 +2131,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -2077,7 +2139,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
@@ -2088,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="6">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>86</v>
       </c>
@@ -2103,7 +2165,7 @@
       </c>
       <c r="D87" s="21"/>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -2111,7 +2173,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
@@ -2125,7 +2187,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -2133,7 +2195,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -2141,7 +2203,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>136</v>
       </c>
@@ -2155,7 +2217,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>137</v>
       </c>
@@ -2169,7 +2231,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>139</v>
       </c>
@@ -2183,7 +2245,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>138</v>
       </c>
@@ -2197,7 +2259,7 @@
         <v>45421</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>140</v>
       </c>
@@ -2211,7 +2273,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>97</v>
       </c>
@@ -2225,7 +2287,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>91</v>
       </c>
@@ -2239,7 +2301,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>92</v>
       </c>
@@ -2253,7 +2315,7 @@
         <v>45433</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>93</v>
       </c>
@@ -2261,7 +2323,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>94</v>
       </c>
@@ -2269,7 +2331,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
@@ -2277,7 +2339,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -2285,7 +2347,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>97</v>
       </c>
@@ -2299,7 +2361,7 @@
         <v>45426</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>98</v>
       </c>
@@ -2307,7 +2369,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>99</v>
       </c>
@@ -2321,7 +2383,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>100</v>
       </c>
@@ -2335,7 +2397,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
@@ -2343,7 +2405,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>102</v>
       </c>
@@ -2351,7 +2413,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>103</v>
       </c>
@@ -2359,7 +2421,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
@@ -2367,7 +2429,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>105</v>
       </c>
@@ -2375,7 +2437,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>106</v>
       </c>
@@ -2383,7 +2445,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>107</v>
       </c>
@@ -2391,7 +2453,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>108</v>
       </c>
@@ -2405,7 +2467,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
@@ -2413,7 +2475,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
@@ -2421,7 +2483,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>111</v>
       </c>
@@ -2429,7 +2491,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2505,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>113</v>
       </c>
@@ -2451,7 +2513,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>114</v>
       </c>
@@ -2459,15 +2521,21 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>116</v>
       </c>
@@ -2479,7 +2547,7 @@
       </c>
       <c r="D123" s="23"/>
     </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>117</v>
       </c>
@@ -2487,7 +2555,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>118</v>
       </c>
@@ -2495,7 +2563,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>119</v>
       </c>
@@ -2503,7 +2571,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>120</v>
       </c>
@@ -2511,7 +2579,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>121</v>
       </c>
@@ -2519,7 +2587,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
@@ -2527,7 +2595,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>123</v>
       </c>
@@ -2535,7 +2603,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>124</v>
       </c>
@@ -2543,7 +2611,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>125</v>
       </c>
@@ -2551,7 +2619,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>126</v>
       </c>
@@ -2559,7 +2627,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>127</v>
       </c>
@@ -2567,7 +2635,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>128</v>
       </c>
@@ -2575,7 +2643,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>129</v>
       </c>
@@ -2583,7 +2651,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>130</v>
       </c>
@@ -2591,7 +2659,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>172</v>
       </c>
@@ -2605,7 +2673,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>173</v>
       </c>
@@ -2619,7 +2687,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>174</v>
       </c>
@@ -2633,7 +2701,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>175</v>
       </c>
@@ -2647,7 +2715,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>176</v>
       </c>
@@ -2661,7 +2729,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>177</v>
       </c>
@@ -2675,7 +2743,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>178</v>
       </c>
@@ -2689,7 +2757,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>179</v>
       </c>
@@ -2703,7 +2771,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>180</v>
       </c>
@@ -2717,7 +2785,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>181</v>
       </c>
@@ -2731,7 +2799,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>182</v>
       </c>
@@ -2745,7 +2813,7 @@
         <v>45427</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
@@ -2759,7 +2827,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
@@ -2773,7 +2841,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
@@ -2787,7 +2855,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>187</v>
       </c>
@@ -2801,7 +2869,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
@@ -2813,6 +2881,34 @@
       </c>
       <c r="D153" s="6">
         <v>45429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
+      <c r="D155" s="6">
+        <v>45433</v>
       </c>
     </row>
   </sheetData>
@@ -2824,18 +2920,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA47FEC-19D0-4F0E-91D4-562668967302}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2843,7 +2939,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
@@ -2851,7 +2947,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>144</v>
       </c>
@@ -2862,7 +2958,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="14" t="s">
         <v>149</v>
@@ -2871,7 +2967,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="14" t="s">
         <v>148</v>
@@ -2880,7 +2976,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="15" t="s">
         <v>150</v>
@@ -2889,7 +2985,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>151</v>
       </c>
@@ -2900,7 +2996,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="14" t="s">
         <v>137</v>
@@ -2909,27 +3005,27 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>154</v>
       </c>
@@ -2937,133 +3033,133 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>191</v>
       </c>
@@ -3071,43 +3167,38 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="27"/>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
